--- a/Interop/Excel/bin/Release/Table1.xlsx
+++ b/Interop/Excel/bin/Release/Table1.xlsx
@@ -13,6 +13,32 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Първо име</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Години</t>
+  </si>
+  <si>
+    <t>Мартин</t>
+  </si>
+  <si>
+    <t>Симеонов</t>
+  </si>
+  <si>
+    <t>Георги</t>
+  </si>
+  <si>
+    <t>Маринов</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,12 +376,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
